--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>224883.0164233864</v>
+        <v>222181.3685208516</v>
       </c>
     </row>
     <row r="7">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166639</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>143.2690424640639</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663196</v>
+        <v>81.21477241771925</v>
       </c>
     </row>
     <row r="3">
@@ -744,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>15.30627834053581</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846324</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>71.59042511890991</v>
       </c>
     </row>
     <row r="4">
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>52.21594625443403</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H5" t="n">
         <v>304.326804756183</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>264.1981927189493</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>165.9891204513454</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>159.0184015623263</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
         <v>225.8205739680685</v>
@@ -1035,10 +1035,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>48.44881203773655</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>55.4250336878445</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>138.3684423428052</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>11.830884450382</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>303.918686916365</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.62727429151388</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>16.94002275672386</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0679046626562</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>253.6207775699879</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>38.88255568978461</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4859120069138</v>
       </c>
       <c r="H9" t="n">
         <v>94.29488917436606</v>
       </c>
       <c r="I9" t="n">
-        <v>35.56536036433982</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.34503645282948</v>
+        <v>30.34503645282956</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>192.6772763323794</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>204.6333553380614</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>50.53876565823833</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.89051046332412</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.2914415359382</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>13.38465568425126</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>315.3998342615238</v>
       </c>
       <c r="D11" t="n">
-        <v>266.7109271330685</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.469606913266</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
         <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>24.1466220418456</v>
+        <v>24.14662204184557</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615213</v>
+        <v>98.88510599615212</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530792</v>
+        <v>10.48847705530791</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905241</v>
+        <v>79.8133067990524</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>181.1800368939014</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
         <v>286.2007761200435</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>30.05706037504377</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428179</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>83.06560892428337</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890352</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503962</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,10 +2011,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890377</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>1.294096136279876</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797025</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>9.146142788179031</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>104.891381999978</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833812</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>104.8913819999784</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881277</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503964</v>
       </c>
       <c r="D37" t="n">
-        <v>2.607010073151455</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>4.019807611471797</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3904,10 +3904,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>91.89996056624729</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880065</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>101.6969570046973</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>338.1060369005842</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="C2" t="n">
-        <v>338.1060369005842</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="D2" t="n">
-        <v>338.1060369005842</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="E2" t="n">
-        <v>338.1060369005842</v>
+        <v>211.3673327389938</v>
       </c>
       <c r="F2" t="n">
-        <v>331.1605361513808</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348963</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348963</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
         <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123825</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985575</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020256</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262241</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262241</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262241</v>
+        <v>672.2420264262252</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262241</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262241</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="W2" t="n">
-        <v>527.5258219170687</v>
+        <v>482.8222414097404</v>
       </c>
       <c r="X2" t="n">
-        <v>527.5258219170687</v>
+        <v>293.4024563932556</v>
       </c>
       <c r="Y2" t="n">
-        <v>338.1060369005842</v>
+        <v>211.3673327389938</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>336.2349471645385</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="C3" t="n">
-        <v>336.2349471645385</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="D3" t="n">
-        <v>336.2349471645385</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="E3" t="n">
-        <v>176.997492159083</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="F3" t="n">
-        <v>30.46293418596801</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="G3" t="n">
-        <v>30.46293418596801</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330557</v>
+        <v>74.50160142188287</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024202</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772646</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140238</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546593</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.210157847634</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017052</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264268</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="S3" t="n">
-        <v>525.6547321810231</v>
+        <v>525.654732181024</v>
       </c>
       <c r="T3" t="n">
-        <v>525.6547321810231</v>
+        <v>525.654732181024</v>
       </c>
       <c r="U3" t="n">
-        <v>336.2349471645385</v>
+        <v>525.654732181024</v>
       </c>
       <c r="V3" t="n">
-        <v>336.2349471645385</v>
+        <v>336.2349471645392</v>
       </c>
       <c r="W3" t="n">
-        <v>336.2349471645385</v>
+        <v>146.8151621480545</v>
       </c>
       <c r="X3" t="n">
-        <v>336.2349471645385</v>
+        <v>146.8151621480545</v>
       </c>
       <c r="Y3" t="n">
-        <v>336.2349471645385</v>
+        <v>74.50160142188287</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230162</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170694</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.418473293963</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2000.794048670971</v>
+        <v>806.9249879919186</v>
       </c>
       <c r="C5" t="n">
-        <v>2000.794048670971</v>
+        <v>806.9249879919186</v>
       </c>
       <c r="D5" t="n">
-        <v>1642.528350064221</v>
+        <v>448.6592893851681</v>
       </c>
       <c r="E5" t="n">
-        <v>1256.740097465976</v>
+        <v>448.6592893851681</v>
       </c>
       <c r="F5" t="n">
-        <v>845.7541926763688</v>
+        <v>441.7137886359646</v>
       </c>
       <c r="G5" t="n">
-        <v>429.723147379776</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H5" t="n">
         <v>122.3223344947425</v>
@@ -4565,19 +4565,19 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711872</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M5" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O5" t="n">
         <v>1761.960612545596</v>
@@ -4601,16 +4601,16 @@
         <v>2168.459826904653</v>
       </c>
       <c r="V5" t="n">
-        <v>2168.459826904653</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W5" t="n">
-        <v>2168.459826904653</v>
+        <v>1570.53007822881</v>
       </c>
       <c r="X5" t="n">
-        <v>2168.459826904653</v>
+        <v>1197.06431996773</v>
       </c>
       <c r="Y5" t="n">
-        <v>2000.794048670971</v>
+        <v>806.9249879919186</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.0707711116521</v>
+        <v>299.4492115120137</v>
       </c>
       <c r="C6" t="n">
-        <v>671.6177418305251</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="D6" t="n">
-        <v>522.6833321692739</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="E6" t="n">
-        <v>363.4458771638183</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="F6" t="n">
-        <v>216.9113191907033</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="G6" t="n">
-        <v>80.03532540581918</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H6" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I6" t="n">
         <v>43.36919653809306</v>
@@ -4668,28 +4668,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R6" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S6" t="n">
-        <v>1734.238298972664</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T6" t="n">
-        <v>1734.238298972664</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="U6" t="n">
-        <v>1506.136709105928</v>
+        <v>1204.450475442445</v>
       </c>
       <c r="V6" t="n">
-        <v>1270.984600874186</v>
+        <v>969.2983672107021</v>
       </c>
       <c r="W6" t="n">
-        <v>1222.046406896674</v>
+        <v>715.0610104825005</v>
       </c>
       <c r="X6" t="n">
-        <v>1222.046406896674</v>
+        <v>507.2095102769676</v>
       </c>
       <c r="Y6" t="n">
-        <v>1014.28610813172</v>
+        <v>299.4492115120137</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>265.6048588347122</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C7" t="n">
-        <v>209.619976321738</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D7" t="n">
-        <v>209.619976321738</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E7" t="n">
-        <v>61.70688273934483</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F7" t="n">
-        <v>61.70688273934483</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G7" t="n">
-        <v>61.70688273934483</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H7" t="n">
-        <v>61.70688273934483</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I7" t="n">
-        <v>61.70688273934483</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J7" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="K7" t="n">
-        <v>92.71685897981523</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L7" t="n">
         <v>185.7706748018941</v>
@@ -4747,28 +4747,28 @@
         <v>520.2893470405991</v>
       </c>
       <c r="R7" t="n">
-        <v>520.2893470405991</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="S7" t="n">
-        <v>520.2893470405991</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="T7" t="n">
-        <v>520.2893470405991</v>
+        <v>271.3587474361104</v>
       </c>
       <c r="U7" t="n">
-        <v>520.2893470405991</v>
+        <v>271.3587474361104</v>
       </c>
       <c r="V7" t="n">
-        <v>265.6048588347122</v>
+        <v>271.3587474361104</v>
       </c>
       <c r="W7" t="n">
-        <v>265.6048588347122</v>
+        <v>271.3587474361104</v>
       </c>
       <c r="X7" t="n">
-        <v>265.6048588347122</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y7" t="n">
-        <v>265.6048588347122</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>853.0655499809816</v>
+        <v>851.6671571886757</v>
       </c>
       <c r="C8" t="n">
-        <v>853.0655499809816</v>
+        <v>851.6671571886757</v>
       </c>
       <c r="D8" t="n">
-        <v>853.0655499809816</v>
+        <v>851.6671571886757</v>
       </c>
       <c r="E8" t="n">
-        <v>467.2772973827374</v>
+        <v>851.6671571886757</v>
       </c>
       <c r="F8" t="n">
-        <v>56.29139259312987</v>
+        <v>440.6812523990682</v>
       </c>
       <c r="G8" t="n">
-        <v>44.34100425941068</v>
+        <v>428.730864065349</v>
       </c>
       <c r="H8" t="n">
-        <v>44.34100425941068</v>
+        <v>121.742291422556</v>
       </c>
       <c r="I8" t="n">
-        <v>44.34100425941068</v>
+        <v>44.34100425941064</v>
       </c>
       <c r="J8" t="n">
         <v>156.82805594203</v>
       </c>
       <c r="K8" t="n">
-        <v>376.1555054002247</v>
+        <v>376.1555054002242</v>
       </c>
       <c r="L8" t="n">
-        <v>685.1523625707946</v>
+        <v>685.1523625707939</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.640340937551</v>
+        <v>1060.64034093755</v>
       </c>
       <c r="N8" t="n">
-        <v>1446.817915733709</v>
+        <v>1446.817915733708</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.139187659511</v>
+        <v>1798.13918765951</v>
       </c>
       <c r="P8" t="n">
-        <v>2063.482764284337</v>
+        <v>2063.482764284334</v>
       </c>
       <c r="Q8" t="n">
-        <v>2214.571993228519</v>
+        <v>2214.571993228517</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.050212970534</v>
+        <v>2217.050212970532</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.050212970534</v>
+        <v>2217.050212970532</v>
       </c>
       <c r="T8" t="n">
-        <v>2217.050212970534</v>
+        <v>2199.939078872831</v>
       </c>
       <c r="U8" t="n">
-        <v>2217.050212970534</v>
+        <v>1946.335134769138</v>
       </c>
       <c r="V8" t="n">
-        <v>1885.987325626963</v>
+        <v>1615.272247425567</v>
       </c>
       <c r="W8" t="n">
-        <v>1885.987325626963</v>
+        <v>1615.272247425567</v>
       </c>
       <c r="X8" t="n">
-        <v>1629.804722020915</v>
+        <v>1241.806489164487</v>
       </c>
       <c r="Y8" t="n">
-        <v>1239.665390045103</v>
+        <v>851.6671571886757</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>669.4947049078087</v>
+        <v>756.6678658941383</v>
       </c>
       <c r="C9" t="n">
-        <v>630.2193961302485</v>
+        <v>582.2148366130114</v>
       </c>
       <c r="D9" t="n">
-        <v>481.2849864689973</v>
+        <v>582.2148366130114</v>
       </c>
       <c r="E9" t="n">
-        <v>322.0475314635418</v>
+        <v>422.9773816075558</v>
       </c>
       <c r="F9" t="n">
-        <v>175.5129734904267</v>
+        <v>276.4428236344408</v>
       </c>
       <c r="G9" t="n">
-        <v>175.5129734904267</v>
+        <v>139.5883670618006</v>
       </c>
       <c r="H9" t="n">
-        <v>80.26561068803676</v>
+        <v>44.34100425941064</v>
       </c>
       <c r="I9" t="n">
-        <v>44.34100425941068</v>
+        <v>44.34100425941064</v>
       </c>
       <c r="J9" t="n">
-        <v>92.51967467113526</v>
+        <v>92.51967467113511</v>
       </c>
       <c r="K9" t="n">
-        <v>253.0195209154166</v>
+        <v>253.0195209154163</v>
       </c>
       <c r="L9" t="n">
-        <v>515.1539122572549</v>
+        <v>515.1539122572543</v>
       </c>
       <c r="M9" t="n">
-        <v>840.4092510449748</v>
+        <v>840.4092510449739</v>
       </c>
       <c r="N9" t="n">
-        <v>1188.681775738687</v>
+        <v>1188.681775738685</v>
       </c>
       <c r="O9" t="n">
-        <v>1485.063300074215</v>
+        <v>1485.063300074214</v>
       </c>
       <c r="P9" t="n">
-        <v>1703.602536566945</v>
+        <v>1703.602536566943</v>
       </c>
       <c r="Q9" t="n">
-        <v>1799.771032257643</v>
+        <v>1799.771032257641</v>
       </c>
       <c r="R9" t="n">
-        <v>1769.119480285088</v>
+        <v>1769.119480285086</v>
       </c>
       <c r="S9" t="n">
-        <v>1769.119480285088</v>
+        <v>1769.119480285086</v>
       </c>
       <c r="T9" t="n">
-        <v>1574.49596883824</v>
+        <v>1574.495968838238</v>
       </c>
       <c r="U9" t="n">
-        <v>1574.49596883824</v>
+        <v>1367.795609910903</v>
       </c>
       <c r="V9" t="n">
-        <v>1339.343860606497</v>
+        <v>1132.64350167916</v>
       </c>
       <c r="W9" t="n">
-        <v>1085.106503878295</v>
+        <v>1132.64350167916</v>
       </c>
       <c r="X9" t="n">
-        <v>877.2550036727625</v>
+        <v>1132.64350167916</v>
       </c>
       <c r="Y9" t="n">
-        <v>669.4947049078087</v>
+        <v>924.8832029142063</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>281.3875671080878</v>
+        <v>44.34100425941064</v>
       </c>
       <c r="C10" t="n">
-        <v>112.4513841801808</v>
+        <v>44.34100425941064</v>
       </c>
       <c r="D10" t="n">
-        <v>112.4513841801808</v>
+        <v>44.34100425941064</v>
       </c>
       <c r="E10" t="n">
-        <v>112.4513841801808</v>
+        <v>44.34100425941064</v>
       </c>
       <c r="F10" t="n">
-        <v>112.4513841801808</v>
+        <v>44.34100425941064</v>
       </c>
       <c r="G10" t="n">
-        <v>112.4513841801808</v>
+        <v>44.34100425941064</v>
       </c>
       <c r="H10" t="n">
-        <v>112.4513841801808</v>
+        <v>44.34100425941064</v>
       </c>
       <c r="I10" t="n">
-        <v>61.40212593953606</v>
+        <v>44.34100425941064</v>
       </c>
       <c r="J10" t="n">
-        <v>44.34100425941068</v>
+        <v>44.34100425941064</v>
       </c>
       <c r="K10" t="n">
-        <v>95.74470838016762</v>
+        <v>95.74470838016747</v>
       </c>
       <c r="L10" t="n">
-        <v>191.4295496810364</v>
+        <v>191.4295496810361</v>
       </c>
       <c r="M10" t="n">
-        <v>295.5740818422664</v>
+        <v>295.574081842266</v>
       </c>
       <c r="N10" t="n">
-        <v>405.0998157091253</v>
+        <v>405.0998157091248</v>
       </c>
       <c r="O10" t="n">
-        <v>485.9514692712736</v>
+        <v>485.9514692712729</v>
       </c>
       <c r="P10" t="n">
-        <v>536.0720553139746</v>
+        <v>536.0720553139738</v>
       </c>
       <c r="Q10" t="n">
-        <v>536.0720553139746</v>
+        <v>536.0720553139738</v>
       </c>
       <c r="R10" t="n">
-        <v>536.0720553139746</v>
+        <v>536.0720553139738</v>
       </c>
       <c r="S10" t="n">
-        <v>536.0720553139746</v>
+        <v>536.0720553139738</v>
       </c>
       <c r="T10" t="n">
-        <v>536.0720553139746</v>
+        <v>312.545346691814</v>
       </c>
       <c r="U10" t="n">
-        <v>536.0720553139746</v>
+        <v>299.0254924652975</v>
       </c>
       <c r="V10" t="n">
-        <v>281.3875671080878</v>
+        <v>44.34100425941064</v>
       </c>
       <c r="W10" t="n">
-        <v>281.3875671080878</v>
+        <v>44.34100425941064</v>
       </c>
       <c r="X10" t="n">
-        <v>281.3875671080878</v>
+        <v>44.34100425941064</v>
       </c>
       <c r="Y10" t="n">
-        <v>281.3875671080878</v>
+        <v>44.34100425941064</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1875.629661109384</v>
+        <v>1872.090169197693</v>
       </c>
       <c r="C11" t="n">
-        <v>1875.629661109384</v>
+        <v>1553.504478024437</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.224684207294</v>
+        <v>1195.238779417687</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.43643160905</v>
+        <v>809.4505268194423</v>
       </c>
       <c r="F11" t="n">
         <v>809.4505268194423</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605877</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="H11" t="n">
         <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706899</v>
+        <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656962</v>
+        <v>695.1615405656956</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.83000462533</v>
+        <v>1216.830004625329</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087831</v>
+        <v>1828.95612308783</v>
       </c>
       <c r="N11" t="n">
         <v>2455.600890484042</v>
@@ -5063,28 +5063,28 @@
         <v>3789.74982946406</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796036</v>
+        <v>3876.883295796035</v>
       </c>
       <c r="S11" t="n">
         <v>3776.999350345377</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926742</v>
+        <v>3573.020743926741</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.52680204827</v>
+        <v>3319.526802048269</v>
       </c>
       <c r="V11" t="n">
         <v>2988.463914704699</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.695259434585</v>
+        <v>2635.695259434584</v>
       </c>
       <c r="X11" t="n">
         <v>2262.229501173505</v>
       </c>
       <c r="Y11" t="n">
-        <v>2262.229501173505</v>
+        <v>1872.090169197693</v>
       </c>
     </row>
     <row r="12">
@@ -5103,43 +5103,43 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453848</v>
+        <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390852</v>
+        <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592073</v>
+        <v>193.8410919870412</v>
       </c>
       <c r="K12" t="n">
-        <v>84.53144813504377</v>
+        <v>470.7769964046655</v>
       </c>
       <c r="L12" t="n">
-        <v>503.2284887929952</v>
+        <v>889.4740370626171</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749523</v>
+        <v>996.4574081599346</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450733</v>
+        <v>1532.266717861145</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783256</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>858.8915125252785</v>
+        <v>374.5442528261668</v>
       </c>
       <c r="C13" t="n">
-        <v>689.9553295973716</v>
+        <v>374.5442528261668</v>
       </c>
       <c r="D13" t="n">
-        <v>539.8386901850358</v>
+        <v>224.4276134138311</v>
       </c>
       <c r="E13" t="n">
-        <v>391.9255966026428</v>
+        <v>224.4276134138311</v>
       </c>
       <c r="F13" t="n">
-        <v>245.0356491047326</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="G13" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592073</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J13" t="n">
         <v>136.8552218758648</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648143</v>
+        <v>364.1690246648144</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344806</v>
+        <v>710.5788654344809</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
@@ -5224,25 +5224,25 @@
         <v>2056.743466925583</v>
       </c>
       <c r="S13" t="n">
-        <v>2056.743466925583</v>
+        <v>1868.627619458879</v>
       </c>
       <c r="T13" t="n">
-        <v>1873.733328648915</v>
+        <v>1647.736286893319</v>
       </c>
       <c r="U13" t="n">
-        <v>1584.641635598366</v>
+        <v>1358.64459384277</v>
       </c>
       <c r="V13" t="n">
-        <v>1329.957147392479</v>
+        <v>1103.960105636883</v>
       </c>
       <c r="W13" t="n">
-        <v>1040.539977355518</v>
+        <v>814.5429355999227</v>
       </c>
       <c r="X13" t="n">
-        <v>1040.539977355518</v>
+        <v>586.5533847019053</v>
       </c>
       <c r="Y13" t="n">
-        <v>1040.539977355518</v>
+        <v>556.1927176564066</v>
       </c>
     </row>
     <row r="14">
@@ -5273,19 +5273,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5309,16 +5309,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400714</v>
+        <v>513.8536007400729</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121646</v>
+        <v>344.917417812166</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>344.917417812166</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>344.917417812166</v>
       </c>
       <c r="F16" t="n">
         <v>261.0127623330919</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5449,22 +5449,22 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
         <v>1688.385853854706</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138428</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703127</v>
       </c>
     </row>
     <row r="17">
@@ -5510,16 +5510,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400706</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5674,49 +5674,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138405</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703104</v>
       </c>
     </row>
     <row r="20">
@@ -5744,13 +5744,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2497.745796000625</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.9745311434708</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C22" t="n">
-        <v>701.0383482155639</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D22" t="n">
-        <v>550.9217088032283</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,13 +5911,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.41557511724</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.62299597371</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6026,10 +6026,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6075,19 +6075,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876684</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597615</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597615</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597615</v>
+        <v>197.0043242297716</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614382</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179081</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6461,10 +6461,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,16 +6598,16 @@
         <v>513.853600740071</v>
       </c>
       <c r="C31" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6619,13 +6619,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,7 +6643,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6780,25 +6780,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400714</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D34" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="35">
@@ -6917,55 +6917,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,55 +7069,55 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.2707707770312</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C37" t="n">
-        <v>634.3345878491243</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408905</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.711814750801</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.9192356072709</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400718</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138413</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703115</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282754</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458823</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400714</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400714</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>363.7369613277357</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>363.7369613277357</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>363.7369613277357</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>196.5408620426156</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,7 +7828,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
   </sheetData>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>49.87305750948377</v>
       </c>
       <c r="D11" t="n">
-        <v>87.97211448761448</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927376</v>
+        <v>90.25352389927374</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>37.50238234600258</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>188.527592977051</v>
       </c>
     </row>
     <row r="14">
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393057</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229298</v>
+        <v>62.35543909864788</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844823163</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>145.1398665102893</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>136.2749052347522</v>
+        <v>43.26526345294948</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>62.35543909864985</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -25075,19 +25075,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>62.3554390986494</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.45968844823147</v>
       </c>
       <c r="D37" t="n">
-        <v>146.0084629450609</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>144.5956654067406</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25792,10 +25792,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>125.505489761041</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>65.54986409393081</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>38.59775584152661</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26317,40 +26317,40 @@
         <v>369468.7964389276</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389276</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="E2" t="n">
-        <v>329665.1599234784</v>
+        <v>329665.1599234783</v>
       </c>
       <c r="F2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="G2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605029</v>
       </c>
       <c r="H2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="I2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605028</v>
       </c>
       <c r="J2" t="n">
+        <v>363215.9698605028</v>
+      </c>
+      <c r="K2" t="n">
+        <v>363215.9698605028</v>
+      </c>
+      <c r="L2" t="n">
+        <v>363215.9698605028</v>
+      </c>
+      <c r="M2" t="n">
+        <v>363215.9698605028</v>
+      </c>
+      <c r="N2" t="n">
         <v>363215.9698605029</v>
       </c>
-      <c r="K2" t="n">
-        <v>363215.9698605027</v>
-      </c>
-      <c r="L2" t="n">
-        <v>363215.9698605027</v>
-      </c>
-      <c r="M2" t="n">
-        <v>363215.9698605026</v>
-      </c>
-      <c r="N2" t="n">
-        <v>363215.9698605027</v>
-      </c>
       <c r="O2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605029</v>
       </c>
       <c r="P2" t="n">
         <v>363215.9698605028</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208449</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.244286178</v>
+        <v>392510.2442861776</v>
       </c>
       <c r="D3" t="n">
-        <v>12262.85603264344</v>
+        <v>12262.85603264281</v>
       </c>
       <c r="E3" t="n">
-        <v>395943.9567674488</v>
+        <v>395943.9567674496</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704293</v>
+        <v>189308.268770429</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854453</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487785</v>
+        <v>91259.95686487776</v>
       </c>
       <c r="L3" t="n">
-        <v>3074.447349949967</v>
+        <v>3074.44734994985</v>
       </c>
       <c r="M3" t="n">
-        <v>103409.2608931116</v>
+        <v>103409.2608931117</v>
       </c>
       <c r="N3" t="n">
         <v>49839.57413202369</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.56483413</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>170817.8827607417</v>
+        <v>170817.8827607419</v>
       </c>
       <c r="E4" t="n">
         <v>15941.16541224543</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189196</v>
+        <v>16046.58397189198</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
@@ -26436,28 +26436,28 @@
         <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189199</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189196</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.583971892</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189197</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161354</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>86153.75444404173</v>
+        <v>86153.75444404168</v>
       </c>
       <c r="E5" t="n">
         <v>85137.48506738566</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-557410.471327661</v>
+        <v>-557410.4713276613</v>
       </c>
       <c r="C6" t="n">
-        <v>-282443.5197920203</v>
+        <v>-282443.5197920199</v>
       </c>
       <c r="D6" t="n">
-        <v>100234.3032015008</v>
+        <v>100234.3032015012</v>
       </c>
       <c r="E6" t="n">
-        <v>-167357.4473236015</v>
+        <v>-167578.578637577</v>
       </c>
       <c r="F6" t="n">
-        <v>56738.5872942744</v>
+        <v>56703.84936883897</v>
       </c>
       <c r="G6" t="n">
-        <v>246046.8560647036</v>
+        <v>246012.1181392681</v>
       </c>
       <c r="H6" t="n">
-        <v>246046.8560647037</v>
+        <v>246012.118139268</v>
       </c>
       <c r="I6" t="n">
-        <v>246046.8560647038</v>
+        <v>246012.118139268</v>
       </c>
       <c r="J6" t="n">
-        <v>196981.9113361593</v>
+        <v>196947.1734107234</v>
       </c>
       <c r="K6" t="n">
-        <v>154786.8991998258</v>
+        <v>154752.1612743902</v>
       </c>
       <c r="L6" t="n">
-        <v>242972.4087147536</v>
+        <v>242937.6707893182</v>
       </c>
       <c r="M6" t="n">
-        <v>142637.5951715919</v>
+        <v>142602.8572461563</v>
       </c>
       <c r="N6" t="n">
-        <v>196207.2819326799</v>
+        <v>196172.5440072445</v>
       </c>
       <c r="O6" t="n">
-        <v>246046.8560647037</v>
+        <v>246012.1181392681</v>
       </c>
       <c r="P6" t="n">
-        <v>246046.8560647037</v>
+        <v>246012.118139268</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>863.6234498573219</v>
+        <v>863.6234498573214</v>
       </c>
       <c r="E3" t="n">
         <v>1202.24123721495</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261633</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>554.2625532426335</v>
+        <v>554.262553242633</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490091</v>
+        <v>969.2208239490088</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247799</v>
+        <v>305.2407236247795</v>
       </c>
       <c r="D3" t="n">
-        <v>9.912785319637806</v>
+        <v>9.912785319637237</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6177873576282</v>
+        <v>338.617787357629</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267238</v>
+        <v>165.7342631267234</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598437</v>
+        <v>354.5893695598434</v>
       </c>
       <c r="D4" t="n">
-        <v>12.14759651647023</v>
+        <v>12.14759651646977</v>
       </c>
       <c r="E4" t="n">
-        <v>414.9582707063755</v>
+        <v>414.9582707063759</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506393</v>
+        <v>203.4874641506395</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598437</v>
+        <v>354.5893695598434</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651647023</v>
+        <v>12.14759651646977</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063753</v>
+        <v>414.9582707063759</v>
       </c>
       <c r="N4" t="n">
         <v>203.4874641506395</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598437</v>
+        <v>354.5893695598434</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651647023</v>
+        <v>12.14759651646977</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063755</v>
+        <v>414.9582707063759</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506393</v>
+        <v>203.4874641506395</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637384</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900532</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871046</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>205.9719262533492</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121492</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897339</v>
+        <v>305.0231662383343</v>
       </c>
     </row>
     <row r="3">
@@ -27464,22 +27464,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>85.5354790102039</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409152</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27512,19 +27512,19 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377128</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>134.0922706583945</v>
       </c>
     </row>
     <row r="4">
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825422</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402859</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709393</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515973</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27588,13 +27588,13 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>171.5037272356657</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>199.921697069394</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27622,13 +27622,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.0427759984637</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>220.2488182047082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>13.69009742598945</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,10 +27755,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>203.246171123183</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>111.8217874107833</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>221.3678187343026</v>
+        <v>82.99937639149744</v>
       </c>
       <c r="U7" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9186869163649</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.6272742915138</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9052178731851</v>
+        <v>129.9052178731852</v>
       </c>
       <c r="T8" t="n">
-        <v>207.8978127731749</v>
+        <v>190.957790016451</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0679046626562</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>116.1103231084812</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>133.8259432985311</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4859120069138</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>35.56536036433987</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27986,16 +27986,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.819171215429</v>
+        <v>21.18581587736762</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28029,10 @@
         <v>148.3808817867763</v>
       </c>
       <c r="I10" t="n">
-        <v>58.07783431610156</v>
+        <v>108.6165999743399</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>16.89051046332419</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.09786070099022</v>
+        <v>21.09786070099031</v>
       </c>
       <c r="R10" t="n">
         <v>107.2691031313611</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8761692930954</v>
+        <v>196.8761692930955</v>
       </c>
       <c r="T10" t="n">
-        <v>221.2914415359382</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340827876525</v>
+        <v>272.8494271034012</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28494,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.455191522836685e-12</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -28548,7 +28548,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1.940255363782247e-12</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,46 +31121,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.47185306475305</v>
+        <v>3.471853064753048</v>
       </c>
       <c r="H8" t="n">
-        <v>35.55611519940219</v>
+        <v>35.55611519940216</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8486152788921</v>
+        <v>133.848615278892</v>
       </c>
       <c r="J8" t="n">
-        <v>294.6691890545845</v>
+        <v>294.6691890545843</v>
       </c>
       <c r="K8" t="n">
-        <v>441.6327292855812</v>
+        <v>441.6327292855809</v>
       </c>
       <c r="L8" t="n">
-        <v>547.8844525160175</v>
+        <v>547.8844525160171</v>
       </c>
       <c r="M8" t="n">
-        <v>609.6270194563195</v>
+        <v>609.6270194563191</v>
       </c>
       <c r="N8" t="n">
-        <v>619.4914219765492</v>
+        <v>619.4914219765487</v>
       </c>
       <c r="O8" t="n">
-        <v>584.9681830639109</v>
+        <v>584.9681830639106</v>
       </c>
       <c r="P8" t="n">
-        <v>499.2568105278199</v>
+        <v>499.2568105278197</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9210726463512</v>
+        <v>374.921072646351</v>
       </c>
       <c r="R8" t="n">
-        <v>218.088790078794</v>
+        <v>218.0887900787938</v>
       </c>
       <c r="S8" t="n">
-        <v>79.11485171306022</v>
+        <v>79.11485171306016</v>
       </c>
       <c r="T8" t="n">
-        <v>15.19803679095649</v>
+        <v>15.19803679095648</v>
       </c>
       <c r="U8" t="n">
-        <v>0.277748245180244</v>
+        <v>0.2777482451802438</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857605156296881</v>
+        <v>1.85760515629688</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94055506213041</v>
+        <v>17.9405550621304</v>
       </c>
       <c r="I9" t="n">
-        <v>63.95701963566017</v>
+        <v>63.95701963566013</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5029503148733</v>
+        <v>175.5029503148732</v>
       </c>
       <c r="K9" t="n">
-        <v>299.9624957867644</v>
+        <v>299.9624957867642</v>
       </c>
       <c r="L9" t="n">
-        <v>403.3365932564786</v>
+        <v>403.3365932564783</v>
       </c>
       <c r="M9" t="n">
-        <v>470.6747801722404</v>
+        <v>470.6747801722401</v>
       </c>
       <c r="N9" t="n">
-        <v>483.1321410668805</v>
+        <v>483.1321410668802</v>
       </c>
       <c r="O9" t="n">
-        <v>441.9715215510391</v>
+        <v>441.9715215510388</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7211109423404</v>
+        <v>354.7211109423402</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1216687230896</v>
+        <v>237.1216687230895</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3344675111345</v>
+        <v>115.3344675111344</v>
       </c>
       <c r="S9" t="n">
-        <v>34.5042010391109</v>
+        <v>34.50420103911088</v>
       </c>
       <c r="T9" t="n">
-        <v>7.487452362442251</v>
+        <v>7.487452362442246</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222108655458475</v>
+        <v>0.1222108655458474</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557353762037794</v>
+        <v>1.557353762037792</v>
       </c>
       <c r="H10" t="n">
-        <v>13.8462907206633</v>
+        <v>13.84629072066329</v>
       </c>
       <c r="I10" t="n">
-        <v>46.83387495291839</v>
+        <v>46.83387495291836</v>
       </c>
       <c r="J10" t="n">
-        <v>110.104910976072</v>
+        <v>110.1049109760719</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9361916258454</v>
+        <v>180.9361916258453</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5360311306007</v>
+        <v>231.5360311306006</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1222810801606</v>
+        <v>244.1222810801605</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3175988762018</v>
+        <v>238.3175988762016</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1248753833057</v>
+        <v>220.1248753833055</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3548586377345</v>
+        <v>188.3548586377344</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4071409284556</v>
+        <v>130.4071409284555</v>
       </c>
       <c r="R10" t="n">
-        <v>70.02428824580841</v>
+        <v>70.02428824580836</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14042874387681</v>
+        <v>27.14042874387679</v>
       </c>
       <c r="T10" t="n">
-        <v>6.654147892343298</v>
+        <v>6.654147892343294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08494656883842519</v>
+        <v>0.08494656883842513</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869143</v>
+        <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639237</v>
+        <v>49.49729877639238</v>
       </c>
       <c r="I11" t="n">
         <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203915</v>
+        <v>410.2059184203916</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975125</v>
+        <v>614.7923367975126</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544654</v>
+        <v>762.7042574544655</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954558</v>
+        <v>848.6554437954559</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180165</v>
+        <v>862.3875761180167</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956802</v>
+        <v>814.3281336956803</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620356</v>
+        <v>695.0102219620358</v>
       </c>
       <c r="Q11" t="n">
         <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696628</v>
+        <v>303.5991401696629</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968218</v>
+        <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
         <v>0.3866504481495314</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858572</v>
+        <v>2.585952849858573</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837095</v>
+        <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469207</v>
+        <v>89.03390294469209</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.3158348193137</v>
       </c>
       <c r="K12" t="n">
-        <v>144.9058654583217</v>
+        <v>417.574675759838</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747747</v>
+        <v>561.4806834747748</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821477</v>
+        <v>250.19804513143</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340503</v>
+        <v>672.5632370340504</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924472</v>
+        <v>615.2639659924473</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383444</v>
+        <v>493.8035753383445</v>
       </c>
       <c r="Q12" t="n">
         <v>330.0946129047539</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627652</v>
+        <v>48.03293999627653</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643798</v>
+        <v>0.1701284769643799</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,7 +31914,7 @@
         <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798453</v>
+        <v>65.19695102798454</v>
       </c>
       <c r="J13" t="n">
         <v>153.2759033085355</v>
@@ -31926,28 +31926,28 @@
         <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770062</v>
+        <v>339.8400926770063</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531027</v>
+        <v>331.7594548531028</v>
       </c>
       <c r="O13" t="n">
         <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493063</v>
+        <v>262.2068429493064</v>
       </c>
       <c r="Q13" t="n">
         <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811707</v>
+        <v>97.48008457811709</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493538</v>
+        <v>37.78190904493539</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377481</v>
+        <v>9.263170188377483</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>436.4492970000073</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>158.8462560123214</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32959,7 +32959,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
         <v>790.8204499236507</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>704.1404939038099</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,7 +33500,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>528.6300513467554</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33740,7 +33740,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>388.514013929771</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>440.316328560036</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>338.9915131655318</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996319</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646066</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061144</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520815</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400438</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6232845278982</v>
+        <v>113.623284527898</v>
       </c>
       <c r="K8" t="n">
-        <v>221.5428782406007</v>
+        <v>221.5428782406003</v>
       </c>
       <c r="L8" t="n">
-        <v>312.1180375460303</v>
+        <v>312.1180375460298</v>
       </c>
       <c r="M8" t="n">
-        <v>379.2807862290468</v>
+        <v>379.2807862290464</v>
       </c>
       <c r="N8" t="n">
-        <v>390.0783583799583</v>
+        <v>390.0783583799578</v>
       </c>
       <c r="O8" t="n">
-        <v>354.8699716422242</v>
+        <v>354.8699716422238</v>
       </c>
       <c r="P8" t="n">
-        <v>268.0238147725504</v>
+        <v>268.0238147725501</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6153827719017</v>
+        <v>152.6153827719015</v>
       </c>
       <c r="R8" t="n">
-        <v>2.503252264661882</v>
+        <v>2.503252264661711</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.66532364820665</v>
+        <v>48.66532364820654</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1210568124054</v>
+        <v>162.1210568124052</v>
       </c>
       <c r="L9" t="n">
-        <v>264.7822134766044</v>
+        <v>264.7822134766041</v>
       </c>
       <c r="M9" t="n">
-        <v>328.5407462502221</v>
+        <v>328.5407462502218</v>
       </c>
       <c r="N9" t="n">
-        <v>351.7904289835473</v>
+        <v>351.7904289835469</v>
       </c>
       <c r="O9" t="n">
-        <v>299.3752771065946</v>
+        <v>299.3752771065944</v>
       </c>
       <c r="P9" t="n">
-        <v>220.7467035280102</v>
+        <v>220.74670352801</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.1398946370681</v>
+        <v>97.13989463706795</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.92293345531004</v>
+        <v>51.92293345530993</v>
       </c>
       <c r="L10" t="n">
-        <v>96.65135484936243</v>
+        <v>96.65135484936229</v>
       </c>
       <c r="M10" t="n">
-        <v>105.1964971325556</v>
+        <v>105.1964971325554</v>
       </c>
       <c r="N10" t="n">
-        <v>110.6320544109686</v>
+        <v>110.6320544109684</v>
       </c>
       <c r="O10" t="n">
-        <v>81.66833693146287</v>
+        <v>81.66833693146273</v>
       </c>
       <c r="P10" t="n">
-        <v>50.62685458858689</v>
+        <v>50.62685458858678</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937052</v>
+        <v>229.1600138937053</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525319</v>
+        <v>394.702485752532</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844781</v>
+        <v>526.9378424844783</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681831</v>
+        <v>618.3092105681832</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214256</v>
+        <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739935</v>
+        <v>584.2299222739936</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067661</v>
+        <v>463.7772262067662</v>
       </c>
       <c r="Q11" t="n">
         <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553068</v>
+        <v>88.01360235553074</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.478208152647</v>
       </c>
       <c r="K12" t="n">
-        <v>7.064426483962674</v>
+        <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949005</v>
+        <v>422.9263036949006</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601294</v>
+        <v>108.0640112094117</v>
       </c>
       <c r="N12" t="n">
-        <v>541.221524950717</v>
+        <v>541.2215249507171</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480028</v>
+        <v>472.6677215480029</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240141</v>
+        <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
         <v>190.1128388187324</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655345</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186273</v>
+        <v>59.91672319186276</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070197</v>
+        <v>229.6099018070198</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703702</v>
+        <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388468</v>
+        <v>379.4239696388469</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323313</v>
+        <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
         <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141998</v>
+        <v>259.4854022141999</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776309</v>
+        <v>95.37638356776311</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>18.86448192629984</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>82.88662398579324</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>397.2883392634221</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>245.9177694853266</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>302.474889585677</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
